--- a/portfolios/sml_equity/strategy_entrances_exits/trend/Bollinger_entrances.xlsx
+++ b/portfolios/sml_equity/strategy_entrances_exits/trend/Bollinger_entrances.xlsx
@@ -1432,13 +1432,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR2">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS2">
         <v>3188307.92859569</v>
       </c>
       <c r="BT2">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU2">
         <v>12</v>
@@ -1635,13 +1635,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR3">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS3">
         <v>3188307.92859569</v>
       </c>
       <c r="BT3">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU3">
         <v>12</v>
@@ -1838,13 +1838,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR4">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS4">
         <v>3188307.92859569</v>
       </c>
       <c r="BT4">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU4">
         <v>12</v>
@@ -1891,7 +1891,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N5">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O5">
         <v>14.96018857142857</v>
@@ -1948,7 +1948,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH5">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI5">
         <v>0.03394270442728099</v>
@@ -2035,13 +2035,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR5">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS5">
         <v>3188307.92859569</v>
       </c>
       <c r="BT5">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU5">
         <v>12</v>
@@ -2238,13 +2238,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR6">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS6">
         <v>3188307.92859569</v>
       </c>
       <c r="BT6">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU6">
         <v>12</v>
@@ -2291,7 +2291,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N7">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O7">
         <v>9.668219858156039</v>
@@ -2348,7 +2348,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH7">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI7">
         <v>0.01739176900422905</v>
@@ -2441,13 +2441,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR7">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS7">
         <v>3188307.92859569</v>
       </c>
       <c r="BT7">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU7">
         <v>12</v>
@@ -2644,13 +2644,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR8">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS8">
         <v>3188307.92859569</v>
       </c>
       <c r="BT8">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU8">
         <v>12</v>
@@ -2847,13 +2847,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR9">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS9">
         <v>3188307.92859569</v>
       </c>
       <c r="BT9">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU9">
         <v>12</v>
@@ -2900,7 +2900,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N10">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O10">
         <v>2.438156028368806</v>
@@ -2957,7 +2957,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH10">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI10">
         <v>0.0452640643999983</v>
@@ -3050,13 +3050,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR10">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS10">
         <v>3188307.92859569</v>
       </c>
       <c r="BT10">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU10">
         <v>12</v>
@@ -3253,13 +3253,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR11">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS11">
         <v>3188307.92859569</v>
       </c>
       <c r="BT11">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU11">
         <v>12</v>
@@ -3450,13 +3450,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR12">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS12">
         <v>3188307.92859569</v>
       </c>
       <c r="BT12">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU12">
         <v>12</v>
@@ -3653,13 +3653,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR13">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS13">
         <v>3188307.92859569</v>
       </c>
       <c r="BT13">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU13">
         <v>12</v>
@@ -3856,13 +3856,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR14">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS14">
         <v>3188307.92859569</v>
       </c>
       <c r="BT14">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU14">
         <v>12</v>
@@ -4059,13 +4059,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR15">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS15">
         <v>3188307.92859569</v>
       </c>
       <c r="BT15">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU15">
         <v>12</v>
@@ -4256,13 +4256,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR16">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS16">
         <v>3188307.92859569</v>
       </c>
       <c r="BT16">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU16">
         <v>12</v>
@@ -4459,13 +4459,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR17">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS17">
         <v>3188307.92859569</v>
       </c>
       <c r="BT17">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU17">
         <v>12</v>
@@ -4662,13 +4662,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR18">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS18">
         <v>3188307.92859569</v>
       </c>
       <c r="BT18">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU18">
         <v>12</v>
@@ -4865,13 +4865,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR19">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS19">
         <v>3188307.92859569</v>
       </c>
       <c r="BT19">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU19">
         <v>12</v>
@@ -5068,13 +5068,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR20">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS20">
         <v>3188307.92859569</v>
       </c>
       <c r="BT20">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU20">
         <v>12</v>
@@ -5271,13 +5271,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR21">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS21">
         <v>3188307.92859569</v>
       </c>
       <c r="BT21">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU21">
         <v>12</v>
@@ -5474,13 +5474,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR22">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS22">
         <v>3188307.92859569</v>
       </c>
       <c r="BT22">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU22">
         <v>12</v>
@@ -5674,13 +5674,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR23">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS23">
         <v>3188307.92859569</v>
       </c>
       <c r="BT23">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU23">
         <v>12</v>
@@ -5877,13 +5877,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR24">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS24">
         <v>3188307.92859569</v>
       </c>
       <c r="BT24">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU24">
         <v>12</v>
@@ -5930,7 +5930,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N25">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O25">
         <v>2.622000709219865</v>
@@ -5987,7 +5987,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH25">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI25">
         <v>0.0159715066278319</v>
@@ -6080,13 +6080,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR25">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS25">
         <v>3188307.92859569</v>
       </c>
       <c r="BT25">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU25">
         <v>12</v>
@@ -6283,13 +6283,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR26">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS26">
         <v>3188307.92859569</v>
       </c>
       <c r="BT26">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU26">
         <v>12</v>
@@ -6486,13 +6486,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR27">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS27">
         <v>3188307.92859569</v>
       </c>
       <c r="BT27">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU27">
         <v>12</v>
@@ -6683,13 +6683,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR28">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS28">
         <v>3188307.92859569</v>
       </c>
       <c r="BT28">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU28">
         <v>12</v>
@@ -6886,13 +6886,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR29">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS29">
         <v>3188307.92859569</v>
       </c>
       <c r="BT29">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU29">
         <v>12</v>
@@ -7089,13 +7089,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR30">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS30">
         <v>3188307.92859569</v>
       </c>
       <c r="BT30">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU30">
         <v>12</v>
@@ -7292,13 +7292,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR31">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS31">
         <v>3188307.92859569</v>
       </c>
       <c r="BT31">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU31">
         <v>12</v>
@@ -7495,13 +7495,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR32">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS32">
         <v>3188307.92859569</v>
       </c>
       <c r="BT32">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU32">
         <v>12</v>
@@ -7698,13 +7698,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR33">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS33">
         <v>3188307.92859569</v>
       </c>
       <c r="BT33">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU33">
         <v>12</v>
@@ -7901,13 +7901,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR34">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS34">
         <v>3188307.92859569</v>
       </c>
       <c r="BT34">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU34">
         <v>12</v>
@@ -8104,13 +8104,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR35">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS35">
         <v>3188307.92859569</v>
       </c>
       <c r="BT35">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU35">
         <v>12</v>
@@ -8301,13 +8301,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR36">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS36">
         <v>3188307.92859569</v>
       </c>
       <c r="BT36">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU36">
         <v>12</v>
@@ -8504,13 +8504,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR37">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS37">
         <v>3188307.92859569</v>
       </c>
       <c r="BT37">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU37">
         <v>12</v>
@@ -8707,13 +8707,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR38">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS38">
         <v>3188307.92859569</v>
       </c>
       <c r="BT38">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU38">
         <v>12</v>
@@ -8910,13 +8910,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR39">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS39">
         <v>3188307.92859569</v>
       </c>
       <c r="BT39">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU39">
         <v>12</v>
@@ -9113,13 +9113,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR40">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS40">
         <v>3188307.92859569</v>
       </c>
       <c r="BT40">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU40">
         <v>12</v>
@@ -9316,13 +9316,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR41">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS41">
         <v>3188307.92859569</v>
       </c>
       <c r="BT41">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU41">
         <v>12</v>
@@ -9519,13 +9519,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR42">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS42">
         <v>3188307.92859569</v>
       </c>
       <c r="BT42">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU42">
         <v>12</v>
@@ -9722,13 +9722,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR43">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS43">
         <v>3188307.92859569</v>
       </c>
       <c r="BT43">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU43">
         <v>12</v>
@@ -9775,7 +9775,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N44">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O44">
         <v>20.06519858156149</v>
@@ -9832,7 +9832,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH44">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI44">
         <v>0.02720481887318538</v>
@@ -9925,13 +9925,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR44">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS44">
         <v>3188307.92859569</v>
       </c>
       <c r="BT44">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU44">
         <v>12</v>
@@ -10122,13 +10122,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="BR45">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="BS45">
         <v>3188307.92859569</v>
       </c>
       <c r="BT45">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
       <c r="BU45">
         <v>12</v>
@@ -10172,10 +10172,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M46">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N46">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O46">
         <v>13.81243714285708</v>
@@ -10232,7 +10232,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH46">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI46">
         <v>0.009422620872874782</v>
@@ -10331,13 +10331,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR46">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS46">
         <v>3670304.773336913</v>
       </c>
       <c r="BT46">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU46">
         <v>12</v>
@@ -10534,13 +10534,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR47">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS47">
         <v>3670304.773336913</v>
       </c>
       <c r="BT47">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU47">
         <v>12</v>
@@ -10743,13 +10743,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR48">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS48">
         <v>3670304.773336913</v>
       </c>
       <c r="BT48">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU48">
         <v>12</v>
@@ -10952,13 +10952,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR49">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS49">
         <v>3670304.773336913</v>
       </c>
       <c r="BT49">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU49">
         <v>12</v>
@@ -11161,13 +11161,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR50">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS50">
         <v>3670304.773336913</v>
       </c>
       <c r="BT50">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU50">
         <v>12</v>
@@ -11370,13 +11370,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR51">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS51">
         <v>3670304.773336913</v>
       </c>
       <c r="BT51">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU51">
         <v>12</v>
@@ -11420,10 +11420,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M52">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N52">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O52">
         <v>2.426785714285726</v>
@@ -11480,7 +11480,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH52">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI52">
         <v>0.04777920313067459</v>
@@ -11579,13 +11579,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR52">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS52">
         <v>3670304.773336913</v>
       </c>
       <c r="BT52">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU52">
         <v>12</v>
@@ -11788,13 +11788,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR53">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS53">
         <v>3670304.773336913</v>
       </c>
       <c r="BT53">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU53">
         <v>12</v>
@@ -11997,13 +11997,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR54">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS54">
         <v>3670304.773336913</v>
       </c>
       <c r="BT54">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU54">
         <v>12</v>
@@ -12047,10 +12047,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M55">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N55">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O55">
         <v>13.75902357142855</v>
@@ -12107,7 +12107,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH55">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI55">
         <v>0.02072781974906593</v>
@@ -12206,13 +12206,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR55">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS55">
         <v>3670304.773336913</v>
       </c>
       <c r="BT55">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU55">
         <v>12</v>
@@ -12415,13 +12415,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR56">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS56">
         <v>3670304.773336913</v>
       </c>
       <c r="BT56">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU56">
         <v>12</v>
@@ -12465,10 +12465,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M57">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N57">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O57">
         <v>23.42614571428567</v>
@@ -12525,7 +12525,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH57">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI57">
         <v>0.02012782228828855</v>
@@ -12624,13 +12624,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR57">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS57">
         <v>3670304.773336913</v>
       </c>
       <c r="BT57">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU57">
         <v>12</v>
@@ -12674,10 +12674,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M58">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N58">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O58">
         <v>9.652457142857154</v>
@@ -12734,7 +12734,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH58">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI58">
         <v>0.01573842144510612</v>
@@ -12833,13 +12833,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR58">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS58">
         <v>3670304.773336913</v>
       </c>
       <c r="BT58">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU58">
         <v>12</v>
@@ -13042,13 +13042,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR59">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS59">
         <v>3670304.773336913</v>
       </c>
       <c r="BT59">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU59">
         <v>12</v>
@@ -13092,10 +13092,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M60">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N60">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O60">
         <v>12.44011785714286</v>
@@ -13152,7 +13152,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH60">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI60">
         <v>0.02945889605362287</v>
@@ -13251,13 +13251,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR60">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS60">
         <v>3670304.773336913</v>
       </c>
       <c r="BT60">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU60">
         <v>12</v>
@@ -13301,10 +13301,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M61">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N61">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O61">
         <v>40.13537285714295</v>
@@ -13361,7 +13361,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH61">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI61">
         <v>0.01481857847939734</v>
@@ -13460,13 +13460,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR61">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS61">
         <v>3670304.773336913</v>
       </c>
       <c r="BT61">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU61">
         <v>12</v>
@@ -13666,13 +13666,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR62">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS62">
         <v>3670304.773336913</v>
       </c>
       <c r="BT62">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU62">
         <v>12</v>
@@ -13875,13 +13875,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR63">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS63">
         <v>3670304.773336913</v>
       </c>
       <c r="BT63">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU63">
         <v>12</v>
@@ -14084,13 +14084,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR64">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS64">
         <v>3670304.773336913</v>
       </c>
       <c r="BT64">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU64">
         <v>12</v>
@@ -14287,13 +14287,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR65">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS65">
         <v>3670304.773336913</v>
       </c>
       <c r="BT65">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU65">
         <v>12</v>
@@ -14496,13 +14496,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR66">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS66">
         <v>3670304.773336913</v>
       </c>
       <c r="BT66">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU66">
         <v>12</v>
@@ -14705,13 +14705,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR67">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS67">
         <v>3670304.773336913</v>
       </c>
       <c r="BT67">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU67">
         <v>12</v>
@@ -14914,13 +14914,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR68">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS68">
         <v>3670304.773336913</v>
       </c>
       <c r="BT68">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU68">
         <v>12</v>
@@ -15123,13 +15123,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR69">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS69">
         <v>3670304.773336913</v>
       </c>
       <c r="BT69">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU69">
         <v>12</v>
@@ -15332,13 +15332,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR70">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS70">
         <v>3670304.773336913</v>
       </c>
       <c r="BT70">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU70">
         <v>12</v>
@@ -15541,13 +15541,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR71">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS71">
         <v>3670304.773336913</v>
       </c>
       <c r="BT71">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU71">
         <v>12</v>
@@ -15750,13 +15750,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR72">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS72">
         <v>3670304.773336913</v>
       </c>
       <c r="BT72">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU72">
         <v>12</v>
@@ -15959,13 +15959,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR73">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS73">
         <v>3670304.773336913</v>
       </c>
       <c r="BT73">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU73">
         <v>12</v>
@@ -16168,13 +16168,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR74">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS74">
         <v>3670304.773336913</v>
       </c>
       <c r="BT74">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU74">
         <v>12</v>
@@ -16377,13 +16377,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR75">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS75">
         <v>3670304.773336913</v>
       </c>
       <c r="BT75">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU75">
         <v>12</v>
@@ -16586,13 +16586,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR76">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS76">
         <v>3670304.773336913</v>
       </c>
       <c r="BT76">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU76">
         <v>12</v>
@@ -16795,13 +16795,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR77">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS77">
         <v>3670304.773336913</v>
       </c>
       <c r="BT77">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU77">
         <v>12</v>
@@ -17004,13 +17004,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR78">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS78">
         <v>3670304.773336913</v>
       </c>
       <c r="BT78">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU78">
         <v>12</v>
@@ -17213,13 +17213,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR79">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS79">
         <v>3670304.773336913</v>
       </c>
       <c r="BT79">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU79">
         <v>12</v>
@@ -17263,10 +17263,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M80">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N80">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O80">
         <v>6.421487857142832</v>
@@ -17323,7 +17323,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH80">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI80">
         <v>0.01584745632196844</v>
@@ -17422,13 +17422,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR80">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS80">
         <v>3670304.773336913</v>
       </c>
       <c r="BT80">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU80">
         <v>12</v>
@@ -17472,10 +17472,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M81">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N81">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O81">
         <v>10.38773928571425</v>
@@ -17532,7 +17532,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH81">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI81">
         <v>0.02061034163558665</v>
@@ -17628,13 +17628,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR81">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS81">
         <v>3670304.773336913</v>
       </c>
       <c r="BT81">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU81">
         <v>12</v>
@@ -17837,13 +17837,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR82">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS82">
         <v>3670304.773336913</v>
       </c>
       <c r="BT82">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU82">
         <v>12</v>
@@ -18046,13 +18046,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR83">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS83">
         <v>3670304.773336913</v>
       </c>
       <c r="BT83">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU83">
         <v>12</v>
@@ -18096,10 +18096,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M84">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N84">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O84">
         <v>18.97239785714284</v>
@@ -18156,7 +18156,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH84">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI84">
         <v>0.01406805164085614</v>
@@ -18255,13 +18255,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR84">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS84">
         <v>3670304.773336913</v>
       </c>
       <c r="BT84">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU84">
         <v>12</v>
@@ -18464,13 +18464,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR85">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS85">
         <v>3670304.773336913</v>
       </c>
       <c r="BT85">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU85">
         <v>12</v>
@@ -18514,10 +18514,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M86">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N86">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O86">
         <v>2.616015000000007</v>
@@ -18574,7 +18574,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH86">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI86">
         <v>0.01842866149365219</v>
@@ -18673,13 +18673,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR86">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS86">
         <v>3670304.773336913</v>
       </c>
       <c r="BT86">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU86">
         <v>12</v>
@@ -18882,13 +18882,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR87">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS87">
         <v>3670304.773336913</v>
       </c>
       <c r="BT87">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU87">
         <v>12</v>
@@ -19091,13 +19091,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR88">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS88">
         <v>3670304.773336913</v>
       </c>
       <c r="BT88">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU88">
         <v>12</v>
@@ -19300,13 +19300,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR89">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS89">
         <v>3670304.773336913</v>
       </c>
       <c r="BT89">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU89">
         <v>12</v>
@@ -19509,13 +19509,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR90">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS90">
         <v>3670304.773336913</v>
       </c>
       <c r="BT90">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU90">
         <v>12</v>
@@ -19712,13 +19712,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR91">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS91">
         <v>3670304.773336913</v>
       </c>
       <c r="BT91">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU91">
         <v>12</v>
@@ -19921,13 +19921,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR92">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS92">
         <v>3670304.773336913</v>
       </c>
       <c r="BT92">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU92">
         <v>12</v>
@@ -20130,13 +20130,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR93">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS93">
         <v>3670304.773336913</v>
       </c>
       <c r="BT93">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU93">
         <v>12</v>
@@ -20339,13 +20339,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR94">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS94">
         <v>3670304.773336913</v>
       </c>
       <c r="BT94">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU94">
         <v>12</v>
@@ -20548,13 +20548,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR95">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS95">
         <v>3670304.773336913</v>
       </c>
       <c r="BT95">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU95">
         <v>12</v>
@@ -20757,13 +20757,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR96">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS96">
         <v>3670304.773336913</v>
       </c>
       <c r="BT96">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU96">
         <v>12</v>
@@ -20966,13 +20966,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR97">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS97">
         <v>3670304.773336913</v>
       </c>
       <c r="BT97">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU97">
         <v>12</v>
@@ -21175,13 +21175,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR98">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS98">
         <v>3670304.773336913</v>
       </c>
       <c r="BT98">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU98">
         <v>12</v>
@@ -21384,13 +21384,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR99">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS99">
         <v>3670304.773336913</v>
       </c>
       <c r="BT99">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU99">
         <v>12</v>
@@ -21593,13 +21593,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR100">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS100">
         <v>3670304.773336913</v>
       </c>
       <c r="BT100">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU100">
         <v>12</v>
@@ -21802,13 +21802,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR101">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS101">
         <v>3670304.773336913</v>
       </c>
       <c r="BT101">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU101">
         <v>12</v>
@@ -22011,13 +22011,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR102">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS102">
         <v>3670304.773336913</v>
       </c>
       <c r="BT102">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU102">
         <v>12</v>
@@ -22220,13 +22220,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR103">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS103">
         <v>3670304.773336913</v>
       </c>
       <c r="BT103">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU103">
         <v>12</v>
@@ -22429,13 +22429,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR104">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS104">
         <v>3670304.773336913</v>
       </c>
       <c r="BT104">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU104">
         <v>12</v>
@@ -22638,13 +22638,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR105">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS105">
         <v>3670304.773336913</v>
       </c>
       <c r="BT105">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU105">
         <v>12</v>
@@ -22847,13 +22847,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR106">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS106">
         <v>3670304.773336913</v>
       </c>
       <c r="BT106">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU106">
         <v>12</v>
@@ -23056,13 +23056,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR107">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS107">
         <v>3670304.773336913</v>
       </c>
       <c r="BT107">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU107">
         <v>12</v>
@@ -23265,13 +23265,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR108">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS108">
         <v>3670304.773336913</v>
       </c>
       <c r="BT108">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU108">
         <v>12</v>
@@ -23474,13 +23474,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR109">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS109">
         <v>3670304.773336913</v>
       </c>
       <c r="BT109">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU109">
         <v>12</v>
@@ -23683,13 +23683,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR110">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS110">
         <v>3670304.773336913</v>
       </c>
       <c r="BT110">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU110">
         <v>12</v>
@@ -23892,13 +23892,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR111">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS111">
         <v>3670304.773336913</v>
       </c>
       <c r="BT111">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU111">
         <v>12</v>
@@ -24101,13 +24101,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR112">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS112">
         <v>3670304.773336913</v>
       </c>
       <c r="BT112">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU112">
         <v>12</v>
@@ -24310,13 +24310,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR113">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS113">
         <v>3670304.773336913</v>
       </c>
       <c r="BT113">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU113">
         <v>12</v>
@@ -24519,13 +24519,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR114">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS114">
         <v>3670304.773336913</v>
       </c>
       <c r="BT114">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU114">
         <v>12</v>
@@ -24728,13 +24728,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR115">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS115">
         <v>3670304.773336913</v>
       </c>
       <c r="BT115">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU115">
         <v>12</v>
@@ -24937,13 +24937,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR116">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS116">
         <v>3670304.773336913</v>
       </c>
       <c r="BT116">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU116">
         <v>12</v>
@@ -24987,10 +24987,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M117">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N117">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O117">
         <v>21.91361071428565</v>
@@ -25047,7 +25047,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH117">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI117">
         <v>0.01475326526564762</v>
@@ -25146,13 +25146,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR117">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS117">
         <v>3670304.773336913</v>
       </c>
       <c r="BT117">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU117">
         <v>12</v>
@@ -25355,13 +25355,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR118">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS118">
         <v>3670304.773336913</v>
       </c>
       <c r="BT118">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU118">
         <v>12</v>
@@ -25564,13 +25564,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR119">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS119">
         <v>3670304.773336913</v>
       </c>
       <c r="BT119">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU119">
         <v>12</v>
@@ -25614,10 +25614,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M120">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N120">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O120">
         <v>19.98687857142979</v>
@@ -25674,7 +25674,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH120">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI120">
         <v>0.03034190526899017</v>
@@ -25773,13 +25773,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR120">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS120">
         <v>3670304.773336913</v>
       </c>
       <c r="BT120">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU120">
         <v>12</v>
@@ -25982,13 +25982,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR121">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS121">
         <v>3670304.773336913</v>
       </c>
       <c r="BT121">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU121">
         <v>12</v>
@@ -26191,13 +26191,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR122">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS122">
         <v>3670304.773336913</v>
       </c>
       <c r="BT122">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU122">
         <v>12</v>
@@ -26400,13 +26400,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR123">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS123">
         <v>3670304.773336913</v>
       </c>
       <c r="BT123">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU123">
         <v>12</v>
@@ -26450,10 +26450,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M124">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N124">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O124">
         <v>13.02241642857145</v>
@@ -26510,7 +26510,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH124">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI124">
         <v>0.01518006709175093</v>
@@ -26609,13 +26609,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR124">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS124">
         <v>3670304.773336913</v>
       </c>
       <c r="BT124">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU124">
         <v>12</v>
@@ -26818,13 +26818,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR125">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS125">
         <v>3670304.773336913</v>
       </c>
       <c r="BT125">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU125">
         <v>12</v>
@@ -26868,10 +26868,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M126">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N126">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O126">
         <v>14.60728571428571</v>
@@ -26928,7 +26928,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH126">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI126">
         <v>0.01682298809550343</v>
@@ -27027,13 +27027,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="BR126">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="BS126">
         <v>3670304.773336913</v>
       </c>
       <c r="BT126">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
       <c r="BU126">
         <v>12</v>
@@ -27233,16 +27233,16 @@
         <v>1</v>
       </c>
       <c r="BQ127">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR127">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS127">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT127">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU127">
         <v>12</v>
@@ -27442,16 +27442,16 @@
         <v>0</v>
       </c>
       <c r="BQ128">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR128">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS128">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT128">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU128">
         <v>12</v>
@@ -27651,16 +27651,16 @@
         <v>1</v>
       </c>
       <c r="BQ129">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR129">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS129">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT129">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU129">
         <v>12</v>
@@ -27860,16 +27860,16 @@
         <v>1</v>
       </c>
       <c r="BQ130">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR130">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS130">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT130">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU130">
         <v>12</v>
@@ -28069,16 +28069,16 @@
         <v>1</v>
       </c>
       <c r="BQ131">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR131">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS131">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT131">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU131">
         <v>12</v>
@@ -28278,16 +28278,16 @@
         <v>1</v>
       </c>
       <c r="BQ132">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR132">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS132">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT132">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU132">
         <v>12</v>
@@ -28487,16 +28487,16 @@
         <v>1</v>
       </c>
       <c r="BQ133">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR133">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS133">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT133">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU133">
         <v>12</v>
@@ -28696,16 +28696,16 @@
         <v>0</v>
       </c>
       <c r="BQ134">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR134">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS134">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT134">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU134">
         <v>12</v>
@@ -28905,16 +28905,16 @@
         <v>1</v>
       </c>
       <c r="BQ135">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR135">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS135">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT135">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU135">
         <v>12</v>
@@ -29114,16 +29114,16 @@
         <v>1</v>
       </c>
       <c r="BQ136">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR136">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS136">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT136">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU136">
         <v>12</v>
@@ -29323,16 +29323,16 @@
         <v>1</v>
       </c>
       <c r="BQ137">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR137">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS137">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT137">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU137">
         <v>12</v>
@@ -29532,16 +29532,16 @@
         <v>1</v>
       </c>
       <c r="BQ138">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR138">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS138">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT138">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU138">
         <v>12</v>
@@ -29741,16 +29741,16 @@
         <v>1</v>
       </c>
       <c r="BQ139">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR139">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS139">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT139">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU139">
         <v>12</v>
@@ -29950,16 +29950,16 @@
         <v>1</v>
       </c>
       <c r="BQ140">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR140">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS140">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT140">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU140">
         <v>12</v>
@@ -30159,16 +30159,16 @@
         <v>1</v>
       </c>
       <c r="BQ141">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR141">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS141">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT141">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU141">
         <v>12</v>
@@ -30362,16 +30362,16 @@
         <v>1</v>
       </c>
       <c r="BQ142">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR142">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS142">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT142">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU142">
         <v>12</v>
@@ -30415,10 +30415,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M143">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N143">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O143">
         <v>10.36031294964025</v>
@@ -30475,7 +30475,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH143">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI143">
         <v>0.02213867779742617</v>
@@ -30568,16 +30568,16 @@
         <v>1</v>
       </c>
       <c r="BQ143">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR143">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS143">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT143">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU143">
         <v>12</v>
@@ -30777,16 +30777,16 @@
         <v>1</v>
       </c>
       <c r="BQ144">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR144">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS144">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT144">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU144">
         <v>12</v>
@@ -30986,16 +30986,16 @@
         <v>1</v>
       </c>
       <c r="BQ145">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR145">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS145">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT145">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU145">
         <v>12</v>
@@ -31195,16 +31195,16 @@
         <v>1</v>
       </c>
       <c r="BQ146">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR146">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS146">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT146">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU146">
         <v>12</v>
@@ -31404,16 +31404,16 @@
         <v>1</v>
       </c>
       <c r="BQ147">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR147">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS147">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT147">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU147">
         <v>12</v>
@@ -31613,16 +31613,16 @@
         <v>1</v>
       </c>
       <c r="BQ148">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR148">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS148">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT148">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU148">
         <v>12</v>
@@ -31822,16 +31822,16 @@
         <v>1</v>
       </c>
       <c r="BQ149">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR149">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS149">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT149">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU149">
         <v>12</v>
@@ -32031,16 +32031,16 @@
         <v>0</v>
       </c>
       <c r="BQ150">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR150">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS150">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT150">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU150">
         <v>12</v>
@@ -32084,10 +32084,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M151">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N151">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O151">
         <v>2.414388489208645</v>
@@ -32144,7 +32144,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH151">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI151">
         <v>0.03211685168391281</v>
@@ -32240,16 +32240,16 @@
         <v>1</v>
       </c>
       <c r="BQ151">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR151">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS151">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT151">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU151">
         <v>12</v>
@@ -32449,16 +32449,16 @@
         <v>1</v>
       </c>
       <c r="BQ152">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR152">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS152">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT152">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU152">
         <v>12</v>
@@ -32658,16 +32658,16 @@
         <v>1</v>
       </c>
       <c r="BQ153">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR153">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS153">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT153">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU153">
         <v>12</v>
@@ -32867,16 +32867,16 @@
         <v>1</v>
       </c>
       <c r="BQ154">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR154">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS154">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT154">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU154">
         <v>12</v>
@@ -33076,16 +33076,16 @@
         <v>0</v>
       </c>
       <c r="BQ155">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR155">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS155">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT155">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU155">
         <v>12</v>
@@ -33285,16 +33285,16 @@
         <v>1</v>
       </c>
       <c r="BQ156">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR156">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS156">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT156">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU156">
         <v>12</v>
@@ -33494,16 +33494,16 @@
         <v>0</v>
       </c>
       <c r="BQ157">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR157">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS157">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT157">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU157">
         <v>12</v>
@@ -33703,16 +33703,16 @@
         <v>1</v>
       </c>
       <c r="BQ158">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR158">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS158">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT158">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU158">
         <v>12</v>
@@ -33912,16 +33912,16 @@
         <v>1</v>
       </c>
       <c r="BQ159">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR159">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS159">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT159">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU159">
         <v>12</v>
@@ -33965,10 +33965,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M160">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N160">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O160">
         <v>12.65478417266198</v>
@@ -34025,7 +34025,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH160">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI160">
         <v>0.06389498761591415</v>
@@ -34121,16 +34121,16 @@
         <v>1</v>
       </c>
       <c r="BQ160">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR160">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS160">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT160">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU160">
         <v>12</v>
@@ -34327,16 +34327,16 @@
         <v>0</v>
       </c>
       <c r="BQ161">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR161">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS161">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT161">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU161">
         <v>12</v>
@@ -34536,16 +34536,16 @@
         <v>1</v>
       </c>
       <c r="BQ162">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR162">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS162">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT162">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU162">
         <v>12</v>
@@ -34745,16 +34745,16 @@
         <v>1</v>
       </c>
       <c r="BQ163">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR163">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS163">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT163">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU163">
         <v>12</v>
@@ -34954,16 +34954,16 @@
         <v>1</v>
       </c>
       <c r="BQ164">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR164">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS164">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT164">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU164">
         <v>12</v>
@@ -35163,16 +35163,16 @@
         <v>1</v>
       </c>
       <c r="BQ165">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR165">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS165">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT165">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU165">
         <v>12</v>
@@ -35372,16 +35372,16 @@
         <v>1</v>
       </c>
       <c r="BQ166">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR166">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS166">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT166">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU166">
         <v>12</v>
@@ -35581,16 +35581,16 @@
         <v>1</v>
       </c>
       <c r="BQ167">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR167">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS167">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT167">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU167">
         <v>12</v>
@@ -35790,16 +35790,16 @@
         <v>0</v>
       </c>
       <c r="BQ168">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR168">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS168">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT168">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU168">
         <v>12</v>
@@ -35999,16 +35999,16 @@
         <v>1</v>
       </c>
       <c r="BQ169">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR169">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS169">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT169">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU169">
         <v>12</v>
@@ -36202,16 +36202,16 @@
         <v>1</v>
       </c>
       <c r="BQ170">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR170">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS170">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT170">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU170">
         <v>12</v>
@@ -36411,16 +36411,16 @@
         <v>0</v>
       </c>
       <c r="BQ171">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR171">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS171">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT171">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU171">
         <v>12</v>
@@ -36620,16 +36620,16 @@
         <v>1</v>
       </c>
       <c r="BQ172">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR172">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS172">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT172">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU172">
         <v>12</v>
@@ -36829,16 +36829,16 @@
         <v>1</v>
       </c>
       <c r="BQ173">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR173">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS173">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT173">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU173">
         <v>12</v>
@@ -37038,16 +37038,16 @@
         <v>1</v>
       </c>
       <c r="BQ174">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR174">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS174">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT174">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU174">
         <v>12</v>
@@ -37247,16 +37247,16 @@
         <v>1</v>
       </c>
       <c r="BQ175">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR175">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS175">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT175">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU175">
         <v>12</v>
@@ -37456,16 +37456,16 @@
         <v>1</v>
       </c>
       <c r="BQ176">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR176">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS176">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT176">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU176">
         <v>12</v>
@@ -37662,16 +37662,16 @@
         <v>1</v>
       </c>
       <c r="BQ177">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR177">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS177">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT177">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU177">
         <v>12</v>
@@ -37715,10 +37715,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M178">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N178">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O178">
         <v>19.90894244604439</v>
@@ -37775,7 +37775,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH178">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI178">
         <v>0.03164323082965505</v>
@@ -37871,16 +37871,16 @@
         <v>1</v>
       </c>
       <c r="BQ178">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR178">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS178">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT178">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU178">
         <v>12</v>
@@ -38080,16 +38080,16 @@
         <v>1</v>
       </c>
       <c r="BQ179">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR179">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS179">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT179">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU179">
         <v>12</v>
@@ -38289,16 +38289,16 @@
         <v>1</v>
       </c>
       <c r="BQ180">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR180">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS180">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT180">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU180">
         <v>12</v>
@@ -38498,16 +38498,16 @@
         <v>1</v>
       </c>
       <c r="BQ181">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR181">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS181">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT181">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU181">
         <v>12</v>
@@ -38704,16 +38704,16 @@
         <v>1</v>
       </c>
       <c r="BQ182">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR182">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS182">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT182">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU182">
         <v>12</v>
@@ -38913,16 +38913,16 @@
         <v>-1</v>
       </c>
       <c r="BQ183">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR183">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS183">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT183">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU183">
         <v>12</v>
@@ -39122,16 +39122,16 @@
         <v>0</v>
       </c>
       <c r="BQ184">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR184">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS184">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT184">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU184">
         <v>12</v>
@@ -39331,16 +39331,16 @@
         <v>1</v>
       </c>
       <c r="BQ185">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR185">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS185">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT185">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU185">
         <v>12</v>
@@ -39540,16 +39540,16 @@
         <v>0</v>
       </c>
       <c r="BQ186">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR186">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS186">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT186">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU186">
         <v>12</v>
@@ -39593,10 +39593,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M187">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N187">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O187">
         <v>7.032324460431655</v>
@@ -39653,7 +39653,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH187">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI187">
         <v>0.02786153974675875</v>
@@ -39749,16 +39749,16 @@
         <v>1</v>
       </c>
       <c r="BQ187">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR187">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS187">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT187">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU187">
         <v>12</v>
@@ -39958,16 +39958,16 @@
         <v>1</v>
       </c>
       <c r="BQ188">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR188">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS188">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT188">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU188">
         <v>12</v>
@@ -40167,16 +40167,16 @@
         <v>1</v>
       </c>
       <c r="BQ189">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR189">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS189">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT189">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU189">
         <v>12</v>
@@ -40376,16 +40376,16 @@
         <v>1</v>
       </c>
       <c r="BQ190">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR190">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS190">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT190">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU190">
         <v>12</v>
@@ -40585,16 +40585,16 @@
         <v>0</v>
       </c>
       <c r="BQ191">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR191">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS191">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT191">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU191">
         <v>12</v>
@@ -40794,16 +40794,16 @@
         <v>1</v>
       </c>
       <c r="BQ192">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR192">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS192">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT192">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU192">
         <v>12</v>
@@ -41003,16 +41003,16 @@
         <v>0</v>
       </c>
       <c r="BQ193">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR193">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS193">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT193">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU193">
         <v>12</v>
@@ -41212,16 +41212,16 @@
         <v>1</v>
       </c>
       <c r="BQ194">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR194">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS194">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT194">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU194">
         <v>12</v>
@@ -41421,16 +41421,16 @@
         <v>1</v>
       </c>
       <c r="BQ195">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR195">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS195">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT195">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU195">
         <v>12</v>
@@ -41474,10 +41474,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M196">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N196">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O196">
         <v>2.609943165467633</v>
@@ -41534,7 +41534,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH196">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI196">
         <v>0.02082047951107506</v>
@@ -41630,16 +41630,16 @@
         <v>1</v>
       </c>
       <c r="BQ196">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR196">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS196">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT196">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU196">
         <v>12</v>
@@ -41839,16 +41839,16 @@
         <v>1</v>
       </c>
       <c r="BQ197">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR197">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS197">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT197">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU197">
         <v>12</v>
@@ -42048,16 +42048,16 @@
         <v>1</v>
       </c>
       <c r="BQ198">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR198">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS198">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT198">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU198">
         <v>12</v>
@@ -42254,16 +42254,16 @@
         <v>1</v>
       </c>
       <c r="BQ199">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR199">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS199">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT199">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU199">
         <v>12</v>
@@ -42463,16 +42463,16 @@
         <v>1</v>
       </c>
       <c r="BQ200">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR200">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS200">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT200">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU200">
         <v>12</v>
@@ -42672,16 +42672,16 @@
         <v>1</v>
       </c>
       <c r="BQ201">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR201">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS201">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT201">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU201">
         <v>12</v>
@@ -42881,16 +42881,16 @@
         <v>1</v>
       </c>
       <c r="BQ202">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR202">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS202">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT202">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU202">
         <v>12</v>
@@ -43090,16 +43090,16 @@
         <v>1</v>
       </c>
       <c r="BQ203">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR203">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS203">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT203">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU203">
         <v>12</v>
@@ -43299,16 +43299,16 @@
         <v>1</v>
       </c>
       <c r="BQ204">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BR204">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="BS204">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="BT204">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
       <c r="BU204">
         <v>12</v>
@@ -43508,16 +43508,16 @@
         <v>1</v>
       </c>
       <c r="BQ205">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR205">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS205">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT205">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU205">
         <v>12</v>
@@ -43717,16 +43717,16 @@
         <v>1</v>
       </c>
       <c r="BQ206">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR206">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS206">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT206">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU206">
         <v>12</v>
@@ -43770,10 +43770,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M207">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N207">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O207">
         <v>12.31939844961191</v>
@@ -43830,7 +43830,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH207">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI207">
         <v>0.0180303000403305</v>
@@ -43920,16 +43920,16 @@
         <v>0</v>
       </c>
       <c r="BQ207">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR207">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS207">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT207">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU207">
         <v>12</v>
@@ -44129,16 +44129,16 @@
         <v>1</v>
       </c>
       <c r="BQ208">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR208">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS208">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT208">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU208">
         <v>12</v>
@@ -44338,16 +44338,16 @@
         <v>1</v>
       </c>
       <c r="BQ209">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR209">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS209">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT209">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU209">
         <v>12</v>
@@ -44547,16 +44547,16 @@
         <v>1</v>
       </c>
       <c r="BQ210">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR210">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS210">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT210">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU210">
         <v>12</v>
@@ -44600,10 +44600,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M211">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N211">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O211">
         <v>8.067430215827347</v>
@@ -44660,7 +44660,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH211">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI211">
         <v>0.1378902494147747</v>
@@ -44756,16 +44756,16 @@
         <v>1</v>
       </c>
       <c r="BQ211">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR211">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS211">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT211">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU211">
         <v>12</v>
@@ -44965,16 +44965,16 @@
         <v>1</v>
       </c>
       <c r="BQ212">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR212">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS212">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT212">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU212">
         <v>12</v>
@@ -45174,16 +45174,16 @@
         <v>1</v>
       </c>
       <c r="BQ213">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR213">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS213">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT213">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU213">
         <v>12</v>
@@ -45227,10 +45227,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M214">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N214">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O214">
         <v>2.40517985611512</v>
@@ -45287,7 +45287,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH214">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI214">
         <v>0.03537192054150108</v>
@@ -45383,16 +45383,16 @@
         <v>1</v>
       </c>
       <c r="BQ214">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR214">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS214">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT214">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU214">
         <v>12</v>
@@ -45592,16 +45592,16 @@
         <v>1</v>
       </c>
       <c r="BQ215">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR215">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS215">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT215">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU215">
         <v>12</v>
@@ -45801,16 +45801,16 @@
         <v>0</v>
       </c>
       <c r="BQ216">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR216">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS216">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT216">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU216">
         <v>12</v>
@@ -46010,16 +46010,16 @@
         <v>1</v>
       </c>
       <c r="BQ217">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR217">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS217">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT217">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU217">
         <v>12</v>
@@ -46063,10 +46063,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M218">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N218">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O218">
         <v>13.68675539568343</v>
@@ -46123,7 +46123,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH218">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI218">
         <v>0.02224171220358411</v>
@@ -46219,16 +46219,16 @@
         <v>0</v>
       </c>
       <c r="BQ218">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR218">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS218">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT218">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU218">
         <v>12</v>
@@ -46272,10 +46272,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M219">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N219">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O219">
         <v>10.33716043165464</v>
@@ -46332,7 +46332,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH219">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI219">
         <v>0.02433063418740651</v>
@@ -46425,16 +46425,16 @@
         <v>1</v>
       </c>
       <c r="BQ219">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR219">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS219">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT219">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU219">
         <v>12</v>
@@ -46634,16 +46634,16 @@
         <v>1</v>
       </c>
       <c r="BQ220">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR220">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS220">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT220">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU220">
         <v>12</v>
@@ -46843,16 +46843,16 @@
         <v>0</v>
       </c>
       <c r="BQ221">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR221">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS221">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT221">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU221">
         <v>12</v>
@@ -47046,16 +47046,16 @@
         <v>1</v>
       </c>
       <c r="BQ222">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR222">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS222">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT222">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU222">
         <v>12</v>
@@ -47099,10 +47099,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M223">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N223">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O223">
         <v>12.55946043165478</v>
@@ -47159,7 +47159,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH223">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI223">
         <v>0.06618406766102579</v>
@@ -47255,16 +47255,16 @@
         <v>1</v>
       </c>
       <c r="BQ223">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR223">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS223">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT223">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU223">
         <v>12</v>
@@ -47308,10 +47308,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M224">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N224">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O224">
         <v>11.34482014388489</v>
@@ -47368,7 +47368,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH224">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI224">
         <v>0.0247535201579227</v>
@@ -47464,16 +47464,16 @@
         <v>1</v>
       </c>
       <c r="BQ224">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR224">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS224">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT224">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU224">
         <v>12</v>
@@ -47517,10 +47517,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M225">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N225">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O225">
         <v>21.45238057553951</v>
@@ -47577,7 +47577,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH225">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI225">
         <v>0.01850880115823695</v>
@@ -47673,16 +47673,16 @@
         <v>1</v>
       </c>
       <c r="BQ225">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR225">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS225">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT225">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU225">
         <v>12</v>
@@ -47882,16 +47882,16 @@
         <v>1</v>
       </c>
       <c r="BQ226">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR226">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS226">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT226">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU226">
         <v>12</v>
@@ -48091,16 +48091,16 @@
         <v>1</v>
       </c>
       <c r="BQ227">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR227">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS227">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT227">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU227">
         <v>12</v>
@@ -48300,16 +48300,16 @@
         <v>1</v>
       </c>
       <c r="BQ228">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR228">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS228">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT228">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU228">
         <v>12</v>
@@ -48509,16 +48509,16 @@
         <v>1</v>
       </c>
       <c r="BQ229">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR229">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS229">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT229">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU229">
         <v>12</v>
@@ -48718,16 +48718,16 @@
         <v>0</v>
       </c>
       <c r="BQ230">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR230">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS230">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT230">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU230">
         <v>12</v>
@@ -48927,16 +48927,16 @@
         <v>1</v>
       </c>
       <c r="BQ231">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR231">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS231">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT231">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU231">
         <v>12</v>
@@ -49136,16 +49136,16 @@
         <v>1</v>
       </c>
       <c r="BQ232">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR232">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS232">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT232">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU232">
         <v>12</v>
@@ -49345,16 +49345,16 @@
         <v>0</v>
       </c>
       <c r="BQ233">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR233">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS233">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT233">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU233">
         <v>12</v>
@@ -49554,16 +49554,16 @@
         <v>1</v>
       </c>
       <c r="BQ234">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR234">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS234">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT234">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU234">
         <v>12</v>
@@ -49763,16 +49763,16 @@
         <v>0</v>
       </c>
       <c r="BQ235">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR235">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS235">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT235">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU235">
         <v>12</v>
@@ -49972,16 +49972,16 @@
         <v>1</v>
       </c>
       <c r="BQ236">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR236">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS236">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT236">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU236">
         <v>12</v>
@@ -50181,16 +50181,16 @@
         <v>1</v>
       </c>
       <c r="BQ237">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR237">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS237">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT237">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU237">
         <v>12</v>
@@ -50390,16 +50390,16 @@
         <v>0</v>
       </c>
       <c r="BQ238">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR238">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS238">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT238">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU238">
         <v>12</v>
@@ -50599,16 +50599,16 @@
         <v>1</v>
       </c>
       <c r="BQ239">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR239">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS239">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT239">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU239">
         <v>12</v>
@@ -50805,16 +50805,16 @@
         <v>1</v>
       </c>
       <c r="BQ240">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR240">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS240">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT240">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU240">
         <v>12</v>
@@ -51014,16 +51014,16 @@
         <v>1</v>
       </c>
       <c r="BQ241">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR241">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS241">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT241">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU241">
         <v>12</v>
@@ -51067,10 +51067,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M242">
-        <v>929.8662000000002</v>
+        <v>929.6994000000001</v>
       </c>
       <c r="N242">
-        <v>834.2988669064779</v>
+        <v>834.2976669064777</v>
       </c>
       <c r="O242">
         <v>17.13093525179862</v>
@@ -51127,7 +51127,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH242">
-        <v>0.1145480796922083</v>
+        <v>0.1143497541438248</v>
       </c>
       <c r="AI242">
         <v>0.03424472720932681</v>
@@ -51211,16 +51211,16 @@
         <v>1</v>
       </c>
       <c r="BQ242">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR242">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS242">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT242">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU242">
         <v>12</v>
@@ -51420,16 +51420,16 @@
         <v>1</v>
       </c>
       <c r="BQ243">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR243">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS243">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT243">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU243">
         <v>12</v>
@@ -51473,10 +51473,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M244">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N244">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O244">
         <v>12.81825179856115</v>
@@ -51533,7 +51533,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH244">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI244">
         <v>0.01504037191829392</v>
@@ -51629,16 +51629,16 @@
         <v>0</v>
       </c>
       <c r="BQ244">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR244">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS244">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT244">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU244">
         <v>12</v>
@@ -51832,16 +51832,16 @@
         <v>1</v>
       </c>
       <c r="BQ245">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR245">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS245">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT245">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU245">
         <v>12</v>
@@ -52041,16 +52041,16 @@
         <v>1</v>
       </c>
       <c r="BQ246">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR246">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS246">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT246">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU246">
         <v>12</v>
@@ -52250,16 +52250,16 @@
         <v>1</v>
       </c>
       <c r="BQ247">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR247">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS247">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT247">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU247">
         <v>12</v>
@@ -52459,16 +52459,16 @@
         <v>1</v>
       </c>
       <c r="BQ248">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR248">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS248">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT248">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU248">
         <v>12</v>
@@ -52512,10 +52512,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M249">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N249">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O249">
         <v>2.602627338129504</v>
@@ -52572,7 +52572,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH249">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI249">
         <v>0.01851272320164229</v>
@@ -52668,16 +52668,16 @@
         <v>1</v>
       </c>
       <c r="BQ249">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR249">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS249">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT249">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU249">
         <v>12</v>
@@ -52877,16 +52877,16 @@
         <v>1</v>
       </c>
       <c r="BQ250">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR250">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS250">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT250">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU250">
         <v>12</v>
@@ -53086,16 +53086,16 @@
         <v>1</v>
       </c>
       <c r="BQ251">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR251">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS251">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT251">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU251">
         <v>12</v>
@@ -53295,16 +53295,16 @@
         <v>1</v>
       </c>
       <c r="BQ252">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR252">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS252">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT252">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU252">
         <v>12</v>
@@ -53504,16 +53504,16 @@
         <v>1</v>
       </c>
       <c r="BQ253">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR253">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS253">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT253">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU253">
         <v>12</v>
@@ -53713,16 +53713,16 @@
         <v>1</v>
       </c>
       <c r="BQ254">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR254">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS254">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT254">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU254">
         <v>12</v>
@@ -53922,16 +53922,16 @@
         <v>1</v>
       </c>
       <c r="BQ255">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR255">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS255">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT255">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU255">
         <v>12</v>
@@ -54131,16 +54131,16 @@
         <v>1</v>
       </c>
       <c r="BQ256">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR256">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS256">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT256">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU256">
         <v>12</v>
@@ -54340,16 +54340,16 @@
         <v>0</v>
       </c>
       <c r="BQ257">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR257">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS257">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT257">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU257">
         <v>12</v>
@@ -54549,16 +54549,16 @@
         <v>1</v>
       </c>
       <c r="BQ258">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR258">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS258">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT258">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU258">
         <v>12</v>
@@ -54758,16 +54758,16 @@
         <v>1</v>
       </c>
       <c r="BQ259">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR259">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS259">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT259">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU259">
         <v>12</v>
@@ -54967,16 +54967,16 @@
         <v>1</v>
       </c>
       <c r="BQ260">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR260">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS260">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT260">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU260">
         <v>12</v>
@@ -55173,16 +55173,16 @@
         <v>1</v>
       </c>
       <c r="BQ261">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR261">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS261">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT261">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU261">
         <v>12</v>
@@ -55382,16 +55382,16 @@
         <v>1</v>
       </c>
       <c r="BQ262">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR262">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS262">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT262">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU262">
         <v>12</v>
@@ -55435,10 +55435,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M263">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N263">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O263">
         <v>23.97135971223028</v>
@@ -55495,7 +55495,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH263">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI263">
         <v>0.01605565095700026</v>
@@ -55585,16 +55585,16 @@
         <v>1</v>
       </c>
       <c r="BQ263">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR263">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS263">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT263">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU263">
         <v>12</v>
@@ -55794,16 +55794,16 @@
         <v>1</v>
       </c>
       <c r="BQ264">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR264">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS264">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT264">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU264">
         <v>12</v>
@@ -56003,16 +56003,16 @@
         <v>1</v>
       </c>
       <c r="BQ265">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR265">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS265">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT265">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU265">
         <v>12</v>
@@ -56209,16 +56209,16 @@
         <v>1</v>
       </c>
       <c r="BQ266">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR266">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS266">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT266">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU266">
         <v>12</v>
@@ -56418,16 +56418,16 @@
         <v>0</v>
       </c>
       <c r="BQ267">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR267">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS267">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT267">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU267">
         <v>12</v>
@@ -56627,16 +56627,16 @@
         <v>1</v>
       </c>
       <c r="BQ268">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR268">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS268">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT268">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU268">
         <v>12</v>
@@ -56836,16 +56836,16 @@
         <v>1</v>
       </c>
       <c r="BQ269">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR269">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS269">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT269">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU269">
         <v>12</v>
@@ -57045,16 +57045,16 @@
         <v>1</v>
       </c>
       <c r="BQ270">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR270">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS270">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT270">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU270">
         <v>12</v>
@@ -57254,16 +57254,16 @@
         <v>1</v>
       </c>
       <c r="BQ271">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR271">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS271">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT271">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU271">
         <v>12</v>
@@ -57463,16 +57463,16 @@
         <v>1</v>
       </c>
       <c r="BQ272">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR272">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS272">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT272">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU272">
         <v>12</v>
@@ -57672,16 +57672,16 @@
         <v>1</v>
       </c>
       <c r="BQ273">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BR273">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="BS273">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="BT273">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
       <c r="BU273">
         <v>12</v>
